--- a/artfynd/A 64166-2021.xlsx
+++ b/artfynd/A 64166-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91820740</v>
+        <v>91820748</v>
       </c>
       <c r="B2" t="n">
-        <v>89633</v>
+        <v>90647</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655588.8241655316</v>
+        <v>655526.8862207049</v>
       </c>
       <c r="R2" t="n">
-        <v>7352968.129340165</v>
+        <v>7353400.057194735</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91820735</v>
+        <v>91820740</v>
       </c>
       <c r="B3" t="n">
-        <v>90665</v>
+        <v>89633</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>65</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655685.1562783264</v>
+        <v>655588.8241655316</v>
       </c>
       <c r="R3" t="n">
-        <v>7352929.848888704</v>
+        <v>7352968.129340165</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91820754</v>
+        <v>91820735</v>
       </c>
       <c r="B4" t="n">
         <v>90665</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655600.9169711781</v>
+        <v>655685.1562783264</v>
       </c>
       <c r="R4" t="n">
-        <v>7352968.799517729</v>
+        <v>7352929.848888704</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91820748</v>
+        <v>91820754</v>
       </c>
       <c r="B5" t="n">
-        <v>90647</v>
+        <v>90665</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655526.8862207049</v>
+        <v>655600.9169711781</v>
       </c>
       <c r="R5" t="n">
-        <v>7353400.057194735</v>
+        <v>7352968.799517729</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
